--- a/doc/05_ファイル構成一覧表_F2.xlsx
+++ b/doc/05_ファイル構成一覧表_F2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B04C995-5C9F-4F14-88FE-C85574280E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEDAF55-ED28-4A26-AF84-903E1350EAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -346,6 +346,37 @@
     <t>全員</t>
     <rPh sb="0" eb="2">
       <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskListSortServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskListHideServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク一覧ソート用</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク一覧非表示用</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -741,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G48"/>
+  <dimension ref="B2:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -799,7 +830,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B19" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B21" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -830,13 +861,13 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -851,13 +882,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -872,13 +903,13 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -890,16 +921,16 @@
         <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -911,16 +942,16 @@
         <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -935,13 +966,13 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -956,13 +987,13 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -971,19 +1002,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -992,19 +1023,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1016,16 +1047,16 @@
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1040,13 +1071,13 @@
         <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1055,19 +1086,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1076,19 +1107,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1097,19 +1128,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1124,18 +1155,18 @@
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
-        <f t="shared" ref="B20:B48" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1145,18 +1176,18 @@
         <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1166,36 +1197,56 @@
         <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B22:B50" si="1">ROW()-2</f>
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
@@ -1471,6 +1522,28 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1479,21 +1552,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1664,10 +1722,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1690,20 +1774,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_F2.xlsx
+++ b/doc/05_ファイル構成一覧表_F2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEDAF55-ED28-4A26-AF84-903E1350EAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E22125-6A02-4126-8E3C-17B2BF11D5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="15930" windowHeight="9930" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TaskAdd.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タスク追加用</t>
     <rPh sb="3" eb="5">
       <t>ツイカ</t>
@@ -378,6 +374,10 @@
     <rPh sb="8" eb="9">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskAddServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -774,9 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -813,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -825,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -834,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -846,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -855,19 +853,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -876,19 +874,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -897,19 +895,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -918,7 +916,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -930,7 +928,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -939,7 +937,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
@@ -951,7 +949,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -960,7 +958,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -972,7 +970,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -981,19 +979,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1002,19 +1000,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1023,19 +1021,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1044,19 +1042,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1065,19 +1063,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1086,19 +1084,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1107,13 +1105,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>14</v>
@@ -1128,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1149,19 +1147,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1170,19 +1168,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1191,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1212,19 +1210,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1233,19 +1231,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1552,6 +1550,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1722,36 +1735,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1774,9 +1761,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_F2.xlsx
+++ b/doc/05_ファイル構成一覧表_F2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E22125-6A02-4126-8E3C-17B2BF11D5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37C4C91-893C-4DB4-829E-86C9DE3CFAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="15930" windowHeight="9930" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="135" yWindow="975" windowWidth="18285" windowHeight="7875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,6 +456,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,9 +775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G50"/>
+  <dimension ref="B2:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -785,7 +790,7 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -805,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -825,8 +830,11 @@
       <c r="G3" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B21" si="0">ROW()-2</f>
         <v>2</v>
@@ -847,7 +855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -868,7 +876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -889,7 +897,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -909,8 +917,11 @@
       <c r="G7" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -930,8 +941,11 @@
       <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -951,8 +965,11 @@
       <c r="G9" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -972,8 +989,11 @@
       <c r="G10" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -993,8 +1013,11 @@
       <c r="G11" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1014,8 +1037,11 @@
       <c r="G12" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1036,7 +1062,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1056,8 +1082,11 @@
       <c r="G14" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1077,8 +1106,11 @@
       <c r="G15" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1098,8 +1130,11 @@
       <c r="G16" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1119,8 +1154,11 @@
       <c r="G17" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1141,7 +1179,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1161,8 +1199,11 @@
       <c r="G19" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1182,8 +1223,11 @@
       <c r="G20" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1204,7 +1248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <f t="shared" ref="B22:B50" si="1">ROW()-2</f>
         <v>20</v>
@@ -1225,7 +1269,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1246,7 +1290,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1257,7 +1301,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1268,7 +1312,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1279,7 +1323,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1290,7 +1334,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1301,7 +1345,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1312,7 +1356,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1323,7 +1367,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1334,7 +1378,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1550,21 +1594,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1735,10 +1764,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1761,20 +1816,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_F2.xlsx
+++ b/doc/05_ファイル構成一覧表_F2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo7\F-2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37C4C91-893C-4DB4-829E-86C9DE3CFAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0DFE45-7CC8-4A7E-83C7-F75EF77EA61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="975" windowWidth="18285" windowHeight="7875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -439,13 +439,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,6 +470,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,9 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1155,7 +1167,7 @@
         <v>48</v>
       </c>
       <c r="H17" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
@@ -1268,6 +1280,9 @@
       <c r="G22" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
@@ -1288,6 +1303,9 @@
       </c>
       <c r="G23" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="H23">
+        <v>1005</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
@@ -1594,6 +1612,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1764,36 +1797,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1816,9 +1823,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_F2.xlsx
+++ b/doc/05_ファイル構成一覧表_F2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo7\F-2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0DFE45-7CC8-4A7E-83C7-F75EF77EA61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48FB98E-D8DE-4EA9-83A4-CF802F572357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="2730" yWindow="1155" windowWidth="20490" windowHeight="9060" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -378,6 +378,60 @@
   </si>
   <si>
     <t>TaskAddServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AjaxServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態変化の非同期通信用</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウタイヘンカ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>ヒドウキツウシン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <rPh sb="0" eb="3">
+      <t>ミカンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルでもらったテスト用のサーブレット、開発には不必要</t>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>フヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdateDbApi</t>
+  </si>
+  <si>
+    <t>サンプルでもらったサーブレット、開発には不必要</t>
+    <rPh sb="16" eb="18">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>フヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -402,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,8 +469,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -443,9 +509,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -456,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,7 +549,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H50"/>
+  <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -842,13 +931,11 @@
       <c r="G3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="4">
-        <v>0.8</v>
-      </c>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B21" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B24" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -863,9 +950,10 @@
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
@@ -884,8 +972,11 @@
       <c r="F5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>46</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
@@ -905,8 +996,11 @@
       <c r="F6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>46</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
@@ -929,9 +1023,7 @@
       <c r="G7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="4">
-        <v>0.3</v>
-      </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
@@ -953,9 +1045,7 @@
       <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="4">
-        <v>0.1</v>
-      </c>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -969,65 +1059,55 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="1">
+      <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
+      <c r="D10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="1">
+      <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.8</v>
-      </c>
+      <c r="D11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -1038,20 +1118,18 @@
         <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -1065,14 +1143,15 @@
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -1080,23 +1159,21 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -1104,23 +1181,21 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.5</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
@@ -1128,22 +1203,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
@@ -1155,20 +1227,18 @@
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -1176,20 +1246,21 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -1197,23 +1268,21 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -1221,23 +1290,21 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
@@ -1245,24 +1312,24 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <f t="shared" ref="B22:B50" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1272,21 +1339,19 @@
         <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1296,50 +1361,79 @@
         <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H23">
-        <v>1005</v>
-      </c>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B25:B53" si="1">ROW()-2</f>
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1604,6 +1698,39 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="1">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="1">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
